--- a/notebook/data/dst/openpyxl_sample.xlsx
+++ b/notebook/data/dst/openpyxl_sample.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
@@ -13,59 +10,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
-    <t>TWO</t>
-  </si>
-  <si>
-    <t>THREE</t>
-  </si>
-  <si>
-    <t>new sheet!</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,13 +32,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -108,22 +46,89 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,26 +427,36 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>11</v>
@@ -456,9 +471,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>21</v>
@@ -470,9 +487,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>31</v>
@@ -484,9 +503,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>41</v>
@@ -498,9 +519,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>five</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>51</v>
@@ -513,7 +536,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -529,23 +552,31 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ONE</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>11</v>
@@ -557,9 +588,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>TWO</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>21</v>
@@ -571,9 +604,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>THREE</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>31</v>
@@ -586,7 +621,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -604,12 +639,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>new sheet!</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>